--- a/parameters/ModelG_Ramucirumab_Params.xlsx
+++ b/parameters/ModelG_Ramucirumab_Params.xlsx
@@ -1,23 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Downloads/SCIM_ModelG_code/2018-12-10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/git/TMDD_EndogenousLigand/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED17605-A6CB-254B-83D0-61451174899E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="Kd_DT">Sheet1!$F$22</definedName>
+    <definedName name="keDT">Sheet1!$F$20</definedName>
+    <definedName name="keTL">Sheet1!$F$28</definedName>
+    <definedName name="koff_DT">Sheet1!$F$24</definedName>
+    <definedName name="koff_TL">Sheet1!$F$32</definedName>
+    <definedName name="kon_DT">Sheet1!$F$25</definedName>
+    <definedName name="kon_TL">Sheet1!$F$33</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="98">
   <si>
     <t>Order</t>
   </si>
@@ -134,24 +150,12 @@
     <t>calc</t>
   </si>
   <si>
-    <t>=CL/V1</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Cental--&gt;Periph Transit</t>
-  </si>
-  <si>
     <t>k12</t>
   </si>
   <si>
     <t>=Q/V1</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>Periph--&gt;Central Transit</t>
   </si>
   <si>
@@ -236,12 +240,6 @@
     <t>calculated</t>
   </si>
   <si>
-    <t>=Kd*Kon</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>Association Rate</t>
   </si>
   <si>
@@ -269,9 +267,6 @@
     <t>L0</t>
   </si>
   <si>
-    <t>calculated from literature</t>
-  </si>
-  <si>
     <t>spratlin et al</t>
   </si>
   <si>
@@ -293,9 +288,6 @@
     <t>binding parameters were used for VEGFR2 and VEGF</t>
   </si>
   <si>
-    <t>linear Elim Vmax</t>
-  </si>
-  <si>
     <t>Vm_ugml</t>
   </si>
   <si>
@@ -321,41 +313,82 @@
   </si>
   <si>
     <t>Km</t>
+  </si>
+  <si>
+    <t>Equilibration Constant</t>
+  </si>
+  <si>
+    <t>Kss_DT</t>
+  </si>
+  <si>
+    <t>Equilibration</t>
+  </si>
+  <si>
+    <t>Kss_TL</t>
+  </si>
+  <si>
+    <t>set to 1 not used</t>
+  </si>
+  <si>
+    <t>=CL/V</t>
+  </si>
+  <si>
+    <t>Central--&gt;Periph Transit</t>
+  </si>
+  <si>
+    <t>Nonlinear Elim Vmax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +399,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -396,12 +435,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -413,41 +452,411 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -715,11 +1124,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M999"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -731,49 +1140,115 @@
     <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" customWidth="1"/>
     <col min="10" max="10" width="22.1640625" customWidth="1"/>
     <col min="11" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="19" t="str">
+        <f t="shared" ref="I2:I33" ca="1" si="0">_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</f>
+        <v/>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -782,28 +1257,36 @@
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -812,28 +1295,33 @@
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F5" s="4">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -842,33 +1330,33 @@
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F6" s="4">
-        <v>0.35499999999999998</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
       <c r="J6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
@@ -877,30 +1365,33 @@
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F7" s="4">
-        <v>3.26</v>
+        <v>2.04</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
       <c r="J7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>10</v>
@@ -909,44 +1400,64 @@
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F8" s="4">
-        <v>0.24399999999999999</v>
+        <f>F4/F5</f>
+        <v>0.10889570552147239</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+    <row r="9" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="4">
+        <f>F6/F5</f>
+        <v>7.4846625766871164E-2</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>36</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>6</v>
+    <row r="10" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
@@ -955,801 +1466,804 @@
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F10" s="4">
-        <v>2.04</v>
+        <f>F6/F7</f>
+        <v>0.11960784313725489</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>7</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="4">
+        <v>147</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="4">
+        <v>152</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="4">
+        <v>38</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="4">
-        <f>F6/F7</f>
-        <v>0.10889570552147239</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="E19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="6">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="4">
-        <f>F8/F7</f>
-        <v>7.4846625766871164E-2</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="4">
-        <f>F8/F10</f>
-        <v>0.11960784313725489</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="J15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="15">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="J16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" t="e">
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="15">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" t="e">
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>14</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="4">
-        <v>147</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="3"/>
+      <c r="H19" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
       <c r="J19" s="5"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="4">
-        <v>152</v>
+        <v>55</v>
+      </c>
+      <c r="F20" s="8">
+        <v>6</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
       <c r="J20" s="5"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F21" s="4">
-        <v>38</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
       <c r="J21" s="5"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0.03</v>
+        <v>60</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.05</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>19</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="3" t="s">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="6">
+        <f>(koff_DT+keDT)/kon_DT</f>
+        <v>3.05</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="7">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23" s="3"/>
+      <c r="H23" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=(koff_DT+keDT)/kon_DT</v>
+      </c>
       <c r="J23" s="5"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="9">
-        <v>6</v>
+        <v>63</v>
+      </c>
+      <c r="F24" s="4">
+        <f>Kd_DT*kon_DT</f>
+        <v>0.1</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="5"/>
+      <c r="H24" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=Kd_DT*kon_DT</v>
+      </c>
+      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>22</v>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>26</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>66</v>
+      </c>
+      <c r="F25" s="6">
+        <v>2</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F26" s="4">
-        <v>0.05</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="5" t="s">
-        <v>65</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F27" s="4">
-        <f>F28*F26</f>
-        <v>0.1</v>
+        <v>7</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I27" s="10" t="s">
-        <v>69</v>
+      <c r="I27" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>70</v>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>29</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="7">
-        <v>2</v>
+      <c r="F28" s="6">
+        <v>6</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I28" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F29" s="4">
-        <v>1.4E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="F30" s="4">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="6">
+        <f>(koff_TL+keTL)/kon_TL</f>
+        <v>394.82565789473688</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=(koff_TL+keTL)/kon_TL</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>32</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="B32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1.3500000000000001E-3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J32" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="F30" s="4">
-        <v>7</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I30" s="11" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" s="7">
-        <v>6</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F33" s="4">
-        <v>8.7999999999999995E-2</v>
+        <v>1.52E-2</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="11" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>83</v>
+      <c r="I33" s="19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="K33" s="3"/>
-      <c r="L33" s="12" t="s">
-        <v>84</v>
-      </c>
+      <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>32</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="4">
-        <v>1.3500000000000001E-3</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="11" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>33</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="4">
-        <v>1.52E-2</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" s="11" t="e">
-        <v>#NAME?</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
+      <c r="C35" s="11" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2710,14 +3224,147 @@
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="H11:H14">
+    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:H14">
+    <cfRule type="containsText" dxfId="33" priority="10" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="10" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:H14">
+    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",H11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="12" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",H11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:H14">
+    <cfRule type="containsText" dxfId="26" priority="36" operator="containsText" text="internal data">
+      <formula>NOT(ISERROR(SEARCH("internal data",H11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H20 H22:H33">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H20 H22:H33">
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H20 H22:H33">
+    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="22" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="23" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H20 H22:H33">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="internal data">
+      <formula>NOT(ISERROR(SEARCH("internal data",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="containsText" dxfId="13" priority="37" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",H21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="37" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="37" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="37" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="14" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",H21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="containsText" dxfId="8" priority="38" operator="containsText" text="internal data">
+      <formula>NOT(ISERROR(SEARCH("internal data",H21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I33">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",I2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I33">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",I2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",I2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I33">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",I2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",I2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",I2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",I2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",I2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="L33" r:id="rId1"/>
-    <hyperlink ref="J34" r:id="rId2"/>
-    <hyperlink ref="J35" r:id="rId3"/>
+    <hyperlink ref="L30" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J32" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J33" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/parameters/ModelG_Ramucirumab_Params.xlsx
+++ b/parameters/ModelG_Ramucirumab_Params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/git/TMDD_EndogenousLigand/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED17605-A6CB-254B-83D0-61451174899E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFC7AC7-936B-9C44-B1F0-753B65D8698F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/parameters/ModelG_Ramucirumab_Params.xlsx
+++ b/parameters/ModelG_Ramucirumab_Params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/git/TMDD_EndogenousLigand/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFC7AC7-936B-9C44-B1F0-753B65D8698F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87575F2D-8615-3540-B9D8-F95D4955AB38}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,13 +16,38 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Kd_DT">Sheet1!$F$22</definedName>
-    <definedName name="keDT">Sheet1!$F$20</definedName>
-    <definedName name="keTL">Sheet1!$F$28</definedName>
-    <definedName name="koff_DT">Sheet1!$F$24</definedName>
+    <definedName name="CL">Sheet1!$F$4</definedName>
+    <definedName name="F">Sheet1!$F$2</definedName>
+    <definedName name="k12_">Sheet1!$F$9</definedName>
+    <definedName name="k21_">Sheet1!$F$10</definedName>
+    <definedName name="ka">Sheet1!$F$3</definedName>
+    <definedName name="Kd_DT">Sheet1!$F$23</definedName>
+    <definedName name="Kd_TL">Sheet1!$F$30</definedName>
+    <definedName name="keD">Sheet1!$F$8</definedName>
+    <definedName name="keDT">Sheet1!$F$18</definedName>
+    <definedName name="keL">Sheet1!$F$28</definedName>
+    <definedName name="keT">Sheet1!$F$17</definedName>
+    <definedName name="keTL">Sheet1!$F$29</definedName>
+    <definedName name="Km">Sheet1!$F$12</definedName>
+    <definedName name="Km_ugml">Sheet1!#REF!</definedName>
+    <definedName name="koff_DT">Sheet1!$F$25</definedName>
     <definedName name="koff_TL">Sheet1!$F$32</definedName>
-    <definedName name="kon_DT">Sheet1!$F$25</definedName>
+    <definedName name="kon_DT">Sheet1!$F$26</definedName>
     <definedName name="kon_TL">Sheet1!$F$33</definedName>
+    <definedName name="Kss_DT">Sheet1!$F$24</definedName>
+    <definedName name="Kss_TL">Sheet1!$F$31</definedName>
+    <definedName name="ksynL">Sheet1!$F$27</definedName>
+    <definedName name="ksynT">Sheet1!$F$16</definedName>
+    <definedName name="L0">Sheet1!$F$21</definedName>
+    <definedName name="MWD">Sheet1!$F$13</definedName>
+    <definedName name="MWL">Sheet1!$F$15</definedName>
+    <definedName name="MWT">Sheet1!$F$14</definedName>
+    <definedName name="Q">Sheet1!$F$6</definedName>
+    <definedName name="T0">Sheet1!$F$19</definedName>
+    <definedName name="V1_">Sheet1!$F$5</definedName>
+    <definedName name="V2_">Sheet1!$F$7</definedName>
+    <definedName name="Vm">Sheet1!$F$11</definedName>
+    <definedName name="Vm_ugml">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="95">
   <si>
     <t>Order</t>
   </si>
@@ -204,9 +229,6 @@
     <t>nM/d</t>
   </si>
   <si>
-    <t>from bevaci</t>
-  </si>
-  <si>
     <t>keT</t>
   </si>
   <si>
@@ -288,27 +310,12 @@
     <t>binding parameters were used for VEGFR2 and VEGF</t>
   </si>
   <si>
-    <t>Vm_ugml</t>
-  </si>
-  <si>
-    <t>ug/(ml*d)</t>
-  </si>
-  <si>
     <t>linear PK</t>
   </si>
   <si>
     <t>Nonlinear Elim Km</t>
   </si>
   <si>
-    <t>Km_ugml</t>
-  </si>
-  <si>
-    <t>ug/ml</t>
-  </si>
-  <si>
-    <t>Gibiansky12 - Table 1 doi 10.1007/s10928-011-9227-z</t>
-  </si>
-  <si>
     <t>Vm</t>
   </si>
   <si>
@@ -337,13 +344,22 @@
   </si>
   <si>
     <t>Nonlinear Elim Vmax</t>
+  </si>
+  <si>
+    <t>not used</t>
+  </si>
+  <si>
+    <t>TL0</t>
+  </si>
+  <si>
+    <t>I'm not sure what this should be.  Would need a reference for it!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -387,6 +403,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -408,27 +439,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -437,75 +453,83 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="18">
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color theme="4" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -531,16 +555,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -551,181 +565,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1128,25 +972,26 @@
   <dimension ref="A1:M997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="22.83203125" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" customWidth="1"/>
-    <col min="11" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16" style="4" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" style="4" customWidth="1"/>
+    <col min="11" max="26" width="8.6640625" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="14.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1180,8 +1025,8 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1196,16 +1041,16 @@
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="19" t="str">
+      <c r="I2" s="7" t="str">
         <f t="shared" ref="I2:I33" ca="1" si="0">_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</f>
         <v/>
       </c>
@@ -1213,8 +1058,8 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1229,16 +1074,16 @@
       <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="19" t="str">
+      <c r="I3" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1246,8 +1091,8 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1262,30 +1107,30 @@
       <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>0.35499999999999998</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="19" t="str">
+      <c r="I4" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" t="s">
+      <c r="M4" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1300,27 +1145,27 @@
       <c r="E5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>3.26</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="19" t="str">
+      <c r="I5" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1335,27 +1180,27 @@
       <c r="E6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>0.24399999999999999</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="19" t="str">
+      <c r="I6" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1370,27 +1215,27 @@
       <c r="E7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>2.04</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="19" t="str">
+      <c r="I7" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1405,25 +1250,25 @@
       <c r="E8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="4">
-        <f>F4/F5</f>
+      <c r="F8" s="5">
+        <f>CL/V1_</f>
         <v>0.10889570552147239</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>95</v>
+      <c r="I8" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1432,31 +1277,31 @@
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>96</v>
+      <c r="D9" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="4">
-        <f>F6/F5</f>
+      <c r="F9" s="5">
+        <f>Q/V1_</f>
         <v>7.4846625766871164E-2</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="9" t="s">
         <v>36</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1471,17 +1316,17 @@
       <c r="E10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="4">
-        <f>F6/F7</f>
+      <c r="F10" s="5">
+        <f>Q/V2_</f>
         <v>0.11960784313725489</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="9" t="s">
         <v>39</v>
       </c>
       <c r="J10" s="3"/>
@@ -1489,233 +1334,236 @@
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="4">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" t="s">
-        <v>81</v>
+      <c r="D11" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="F11" s="12">
         <v>0</v>
       </c>
-      <c r="G11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="18" t="s">
+      <c r="G11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="19" t="str">
+      <c r="I11" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" t="s">
-        <v>85</v>
       </c>
       <c r="F12" s="12">
         <v>1</v>
       </c>
-      <c r="G12" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" s="19" t="str">
+      <c r="G12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J12" t="s">
-        <v>87</v>
+      <c r="J12" s="11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="A13" s="5">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="19" t="str">
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="5">
+        <v>147</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="12">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="19" t="str">
+      <c r="J13" s="8"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="5">
+        <v>152</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>14</v>
+      <c r="J14" s="8"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="4">
-        <v>147</v>
+        <v>47</v>
+      </c>
+      <c r="F15" s="5">
+        <v>38</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="19" t="str">
+      <c r="I15" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J15" s="5"/>
+      <c r="J15" s="8"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>15</v>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>18</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="4">
-        <v>152</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F16" s="5"/>
       <c r="G16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="19" t="str">
+      <c r="I16" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J16" s="5"/>
+      <c r="J16" s="20"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>16</v>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>19</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="4">
-        <v>38</v>
+        <v>53</v>
+      </c>
+      <c r="F17" s="5">
+        <v>3</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="19" t="str">
+      <c r="I17" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J17" s="5"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>18</v>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>48</v>
@@ -1724,31 +1572,31 @@
         <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0.03</v>
+        <v>54</v>
+      </c>
+      <c r="F18" s="14">
+        <v>6</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="19" t="str">
+        <v>18</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J18" s="5"/>
+      <c r="J18" s="8"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>19</v>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>48</v>
@@ -1757,256 +1605,226 @@
         <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="6">
-        <v>3</v>
+        <v>56</v>
+      </c>
+      <c r="F19" s="5">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="19" t="str">
+        <v>57</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J19" s="5"/>
+      <c r="J19" s="21" t="s">
+        <v>94</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>21</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>30</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="7" t="str">
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F21),"")</f>
+        <v/>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="8">
-        <v>6</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="I20" s="19" t="str">
+      <c r="D23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>22</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="J23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>24.5</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>24</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>24.5</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="D24" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="5">
         <f>(koff_DT+keDT)/kon_DT</f>
         <v>3.05</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="19" t="str">
+      <c r="G24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=(koff_DT+keDT)/kon_DT</v>
       </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="J24" s="8"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>25</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="F25" s="5">
         <f>Kd_DT*kon_DT</f>
         <v>0.1</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="19" t="str">
+      <c r="H25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=Kd_DT*kon_DT</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>26</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="6">
-        <v>2</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="I25" s="19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>27</v>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
+        <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1.4E-2</v>
+        <v>65</v>
+      </c>
+      <c r="F26" s="5">
+        <v>2</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="I26" s="19" t="str">
+        <v>66</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -2014,32 +1832,32 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>28</v>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="4">
-        <v>7</v>
+      <c r="F27" s="5">
+        <v>1.4E-2</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="I27" s="19" t="str">
+        <v>52</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -2047,32 +1865,32 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>29</v>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="6">
-        <v>6</v>
+        <v>70</v>
+      </c>
+      <c r="F28" s="5">
+        <v>7</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="I28" s="19" t="str">
+      <c r="H28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -2080,186 +1898,184 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>30</v>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>71</v>
+      </c>
+      <c r="F29" s="5">
+        <v>6</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" s="19" t="str">
+        <v>18</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J29" s="5" t="s">
-        <v>74</v>
-      </c>
+      <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
         <v>31</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" s="4">
+        <v>74</v>
+      </c>
+      <c r="F30" s="5">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="19" t="str">
+      <c r="I30" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
         <v>31.5</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="6">
+      <c r="C31" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="5">
         <f>(koff_TL+keTL)/kon_TL</f>
         <v>394.82565789473688</v>
       </c>
-      <c r="G31" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="I31" s="19" t="str">
+      <c r="G31" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=(koff_TL+keTL)/kon_TL</v>
       </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="J31" s="8"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="18"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
         <v>32</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>62</v>
+        <v>68</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="4">
+        <v>77</v>
+      </c>
+      <c r="F32" s="5">
         <v>1.3500000000000001E-3</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I32" s="19" t="str">
+      <c r="I32" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J32" s="9" t="s">
-        <v>77</v>
+      <c r="J32" s="18" t="s">
+        <v>76</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
         <v>33</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" s="4">
+        <v>78</v>
+      </c>
+      <c r="F33" s="5">
         <v>1.52E-2</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="19" t="str">
+      <c r="I33" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J33" s="9" t="s">
-        <v>77</v>
+      <c r="J33" s="18" t="s">
+        <v>76</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="11" t="s">
-        <v>80</v>
+      <c r="C35" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3226,139 +3042,74 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="H11:H14">
-    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="calc">
-      <formula>NOT(ISERROR(SEARCH("calc",H11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H14">
-    <cfRule type="containsText" dxfId="33" priority="10" operator="containsText" text="literature">
-      <formula>NOT(ISERROR(SEARCH("literature",H11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="10" operator="containsText" text="guess">
-      <formula>NOT(ISERROR(SEARCH("guess",H11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H14">
-    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="not used">
-      <formula>NOT(ISERROR(SEARCH("not used",H11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="literature">
-      <formula>NOT(ISERROR(SEARCH("literature",H11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="11" operator="containsText" text="guess">
-      <formula>NOT(ISERROR(SEARCH("guess",H11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="12" operator="containsText" text="calc">
-      <formula>NOT(ISERROR(SEARCH("calc",H11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="check">
-      <formula>NOT(ISERROR(SEARCH("check",H11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H14">
-    <cfRule type="containsText" dxfId="26" priority="36" operator="containsText" text="internal data">
-      <formula>NOT(ISERROR(SEARCH("internal data",H11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H20 H22:H33">
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="calc">
+  <conditionalFormatting sqref="H2:H18 I2:I20 I22:I29 H23:H29 H30:I33 H21:I21">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H20 H22:H33">
-    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="literature">
+  <conditionalFormatting sqref="H2:H18 I2:I20 I22:I29 H23:H29 H30:I33 H21:I21">
+    <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="15" priority="10" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H20 H22:H33">
-    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="not used">
+  <conditionalFormatting sqref="H2:H18 I2:I20 I22:I29 H23:H29 H30:I33 H21:I21">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="22" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="23" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H20 H22:H33">
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="internal data">
+  <conditionalFormatting sqref="H2:H18 H23:H33 H21">
+    <cfRule type="containsText" dxfId="9" priority="36" operator="containsText" text="internal data">
       <formula>NOT(ISERROR(SEARCH("internal data",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="calc">
-      <formula>NOT(ISERROR(SEARCH("calc",H21)))</formula>
+  <conditionalFormatting sqref="H19:H22">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="literature">
-      <formula>NOT(ISERROR(SEARCH("literature",H21)))</formula>
+  <conditionalFormatting sqref="H19:H22">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="guess">
-      <formula>NOT(ISERROR(SEARCH("guess",H21)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="13" priority="37" operator="containsText" text="not used">
-      <formula>NOT(ISERROR(SEARCH("not used",H21)))</formula>
+  <conditionalFormatting sqref="H19:H22">
+    <cfRule type="containsText" dxfId="5" priority="14" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",H19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="37" operator="containsText" text="literature">
-      <formula>NOT(ISERROR(SEARCH("literature",H21)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="37" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",H19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="37" operator="containsText" text="guess">
-      <formula>NOT(ISERROR(SEARCH("guess",H21)))</formula>
+    <cfRule type="containsText" dxfId="3" priority="37" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="37" operator="containsText" text="calc">
-      <formula>NOT(ISERROR(SEARCH("calc",H21)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="37" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="14" operator="containsText" text="check">
-      <formula>NOT(ISERROR(SEARCH("check",H21)))</formula>
+    <cfRule type="containsText" dxfId="1" priority="37" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="containsText" dxfId="8" priority="38" operator="containsText" text="internal data">
-      <formula>NOT(ISERROR(SEARCH("internal data",H21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I33">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="calc">
-      <formula>NOT(ISERROR(SEARCH("calc",I2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I33">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="literature">
-      <formula>NOT(ISERROR(SEARCH("literature",I2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="guess">
-      <formula>NOT(ISERROR(SEARCH("guess",I2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I33">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="not used">
-      <formula>NOT(ISERROR(SEARCH("not used",I2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="literature">
-      <formula>NOT(ISERROR(SEARCH("literature",I2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="guess">
-      <formula>NOT(ISERROR(SEARCH("guess",I2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="calc">
-      <formula>NOT(ISERROR(SEARCH("calc",I2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="check">
-      <formula>NOT(ISERROR(SEARCH("check",I2)))</formula>
+  <conditionalFormatting sqref="H19:H22">
+    <cfRule type="containsText" dxfId="0" priority="38" operator="containsText" text="internal data">
+      <formula>NOT(ISERROR(SEARCH("internal data",H19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/parameters/ModelG_Ramucirumab_Params.xlsx
+++ b/parameters/ModelG_Ramucirumab_Params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/git/TMDD_EndogenousLigand/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87575F2D-8615-3540-B9D8-F95D4955AB38}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16701186-5181-3D4C-882F-07A33F02F46C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -972,7 +972,7 @@
   <dimension ref="A1:M997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="F17" sqref="F17:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
